--- a/data/income_statement/2digits/total/30_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/30_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>30-Manufacture of other transport equipment</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>30-Manufacture of other transport equipment</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,20 +841,25 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>4798256.66433</v>
+        <v>4798256.664330001</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>4271318.741959999</v>
+        <v>4271318.74196</v>
       </c>
       <c r="E5" s="47" t="n">
         <v>5651205.75461</v>
@@ -962,37 +868,42 @@
         <v>5720799.32798</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>7237154.08392</v>
+        <v>7348816.93263</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>6946095.38449</v>
+        <v>8699993.711490002</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>8835120.89191</v>
+        <v>10268691.17441</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>12369587.07889</v>
+        <v>12380395.13136</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>17399773.36402</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>23585527.52784</v>
+        <v>23617545.92987</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>34414114.95909999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>34491411.44624</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>37293717.497</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>2283715.38999</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>2300880.523349999</v>
+        <v>2300880.52335</v>
       </c>
       <c r="E6" s="48" t="n">
         <v>2929380.30655</v>
@@ -1001,31 +912,36 @@
         <v>2791895.2761</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>3417613.20573</v>
+        <v>3454839.9252</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>3324303.64127</v>
+        <v>4022896.628829999</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3611619.36125</v>
+        <v>4109204.20079</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>5577281.853479999</v>
+        <v>5588070.90016</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>8077591.714989999</v>
+        <v>8077591.714989998</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>10169045.21859</v>
+        <v>10199125.98226</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>15216187.65643</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>15227736.51102</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>17025798.041</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>2451484.85474</v>
@@ -1040,13 +956,13 @@
         <v>2846930.80623</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>3760989.65494</v>
+        <v>3828360.1896</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>3569512.54547</v>
+        <v>4598024.08704</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>5150724.528689999</v>
+        <v>6068770.510459999</v>
       </c>
       <c r="J7" s="48" t="n">
         <v>6662855.99329</v>
@@ -1055,19 +971,24 @@
         <v>9111692.85</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>13194377.51244</v>
+        <v>13196312.26022</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>18817213.12869</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>18876577.21205</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>19833356.379</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>63056.41959999999</v>
+        <v>63056.41960000001</v>
       </c>
       <c r="D8" s="48" t="n">
         <v>75662.4287</v>
@@ -1079,55 +1000,60 @@
         <v>81973.24565000001</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>58551.22325</v>
+        <v>65616.81783</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>52279.19775</v>
+        <v>79072.99562</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>72777.00197</v>
+        <v>90716.46316000001</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>129449.23212</v>
+        <v>129468.23791</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>210488.79903</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>222104.79681</v>
+        <v>222107.68739</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>380714.17398</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>387097.72317</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>434563.077</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>36970.47212</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>40827.50836</v>
+        <v>40827.50836000001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>51816.93264</v>
+        <v>51816.93263999999</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>77727.26210999998</v>
+        <v>77727.26211</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>70733.29362000001</v>
+        <v>71070.36336999999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>73804.10725</v>
+        <v>73804.93775</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>75284.89367999999</v>
+        <v>77558.47498</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>81946.18601999999</v>
+        <v>82259.58600999998</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>188422.43685</v>
@@ -1136,13 +1062,18 @@
         <v>175028.89802</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>204797.70792</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>204955.43201</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>237963.774</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>12134.67082</v>
@@ -1157,31 +1088,36 @@
         <v>29334.15127</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>20349.63838</v>
+        <v>20648.52016</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>25769.82688</v>
+        <v>25770.65738</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>23648.72228</v>
+        <v>23733.42942</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>31412.9697</v>
+        <v>31726.36969</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>140954.24085</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>88025.25258999999</v>
+        <v>88025.25259</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>86000.63708</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>86154.16116999999</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>104677.508</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>22860.87683</v>
@@ -1193,16 +1129,16 @@
         <v>31190.40394</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>45961.65934</v>
+        <v>45961.65934000001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>47726.94576</v>
+        <v>47765.13372999999</v>
       </c>
       <c r="H11" s="48" t="n">
         <v>44745.8527</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>49829.53506000001</v>
+        <v>49830.85547000002</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>45697.4979</v>
@@ -1211,16 +1147,21 @@
         <v>44241.08917</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>74711.32042999999</v>
+        <v>74711.32043000001</v>
       </c>
       <c r="M11" s="48" t="n">
         <v>103677.47286</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="48" t="n">
+        <v>93225.155</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1974.92447</v>
@@ -1241,10 +1182,10 @@
         <v>3288.42767</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1806.63634</v>
+        <v>3994.190090000001</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>4835.718419999999</v>
+        <v>4835.71842</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>3227.10683</v>
@@ -1253,52 +1194,62 @@
         <v>12292.325</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>15119.59798</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>15123.79798</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>40061.111</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>4761286.192210001</v>
+        <v>4761286.19221</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>4230491.233599999</v>
+        <v>4230491.2336</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>5599388.82197</v>
+        <v>5599388.821969999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>5643072.065869999</v>
+        <v>5643072.065870001</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>7166420.7903</v>
+        <v>7277746.569260001</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>6872291.277239999</v>
+        <v>8626188.773739999</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>8759835.998229999</v>
+        <v>10191132.69943</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>12287640.89287</v>
+        <v>12298135.54535</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>17211350.92717</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>23410498.62982</v>
+        <v>23442517.03185</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>34209317.25118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>34286456.01423001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>37055753.723</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>3955651.58788</v>
@@ -1313,31 +1264,36 @@
         <v>4812510.93791</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>6285658.916389999</v>
+        <v>6370610.40141</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>5661707.96489</v>
+        <v>6918055.56695</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>6831891.76044</v>
+        <v>8100377.693899999</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>9579213.6161</v>
+        <v>9587967.66488</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>13492260.28412</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>16601860.37371</v>
+        <v>16631845.58312</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>24566426.26326</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>24644578.26872</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>26040205.065</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>2468228.4161</v>
@@ -1352,37 +1308,42 @@
         <v>3473702.34047</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>4694113.854590001</v>
+        <v>4756439.04596</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>4106767.150020001</v>
+        <v>5347532.742819999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>5088279.03853</v>
+        <v>6219514.05254</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>7348247.88234</v>
+        <v>7353486.951280001</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>10805817.70447</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>13438975.73078</v>
+        <v>13444360.23388</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>20956547.89405</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>20631829.68257</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>20523714.249</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>540046.05813</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>492886.4725</v>
+        <v>492886.4724999999</v>
       </c>
       <c r="E16" s="48" t="n">
         <v>313077.90574</v>
@@ -1391,34 +1352,39 @@
         <v>332953.86391</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>344856.5778500001</v>
+        <v>347825.14198</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>422010.06049</v>
+        <v>423540.3611299999</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>536871.7003199999</v>
+        <v>565108.7853700001</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>528093.5193399999</v>
+        <v>531608.4991799999</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>1061861.29729</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>680273.7657699999</v>
+        <v>699622.8173000001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>1190541.37843</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>1198780.69867</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1807358.05</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>543173.0693999998</v>
+        <v>543173.0694000002</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>515190.98425</v>
@@ -1427,16 +1393,16 @@
         <v>700530.82099</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>627011.2714200001</v>
+        <v>627011.2714199999</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>740036.4969500001</v>
+        <v>759694.2264699999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>809036.6807200001</v>
+        <v>823088.3893399999</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>907602.7868800001</v>
+        <v>1016152.34674</v>
       </c>
       <c r="J17" s="48" t="n">
         <v>1213351.23276</v>
@@ -1445,25 +1411,30 @@
         <v>1200966.73091</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>1947377.02801</v>
+        <v>1952628.68279</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>1957562.74124</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>2346999.57538</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>3308091.941</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>404204.04425</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>261279.7027999999</v>
+        <v>261279.7028</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>271225.15255</v>
+        <v>271225.1525500001</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>378843.46211</v>
@@ -1472,10 +1443,10 @@
         <v>506651.987</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>323894.07366</v>
+        <v>323894.0736600001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>299138.23471</v>
+        <v>299602.50925</v>
       </c>
       <c r="J18" s="48" t="n">
         <v>489520.98166</v>
@@ -1487,19 +1458,24 @@
         <v>535233.84915</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>461774.24954</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>466968.3121</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>401040.825</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>805634.6043299999</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>653184.3234199999</v>
+        <v>653184.32342</v>
       </c>
       <c r="E19" s="47" t="n">
         <v>1029704.30189</v>
@@ -1508,31 +1484,36 @@
         <v>830561.1279600001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>880761.87391</v>
+        <v>907136.1678500001</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>1210583.31235</v>
+        <v>1708133.20679</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1927944.23779</v>
+        <v>2090755.00553</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>2708427.27677</v>
+        <v>2710167.88047</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>3719090.64305</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>6808638.25611</v>
+        <v>6810671.448729999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>9642890.987919999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>9641877.745509999</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>11015548.658</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>400230.23975</v>
@@ -1547,31 +1528,36 @@
         <v>514810.15986</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>600312.4596599999</v>
+        <v>618649.08297</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>630961.3434299999</v>
+        <v>705978.8751000002</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>718207.9990199999</v>
+        <v>794134.75625</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>966298.1327999999</v>
+        <v>968855.68412</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>1161284.41462</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>1602961.57226</v>
+        <v>1612408.6386</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>2092770.93769</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>2103776.9323</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>2396053.582</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>15753.57535</v>
@@ -1586,37 +1572,42 @@
         <v>29687.58464</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>41189.35603000001</v>
+        <v>41189.35603</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>36455.64416</v>
+        <v>51220.47334999999</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>65021.91335999999</v>
+        <v>65021.91336</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>97060.69416</v>
+        <v>97100.75160999998</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>146228.92628</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>249354.23406</v>
+        <v>249387.90214</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>299531.49799</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>299649.8757</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>413029.203</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
         <v>65863.57668</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>73626.73628</v>
+        <v>73626.73628000001</v>
       </c>
       <c r="E22" s="48" t="n">
         <v>104509.89142</v>
@@ -1625,31 +1616,36 @@
         <v>113204.77179</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>128928.00504</v>
+        <v>136401.60893</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>141682.75437</v>
+        <v>162604.79922</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>169016.98894</v>
+        <v>205781.20167</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>200240.0806</v>
+        <v>200339.45049</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>276814.9940300001</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>388780.51728</v>
+        <v>389031.70791</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>516916.1548700001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>518046.55006</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>526564.148</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>318613.08772</v>
@@ -1664,31 +1660,36 @@
         <v>371917.80343</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>430195.09859</v>
+        <v>441058.11801</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>452822.9449000001</v>
+        <v>492153.60253</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>484169.09672</v>
+        <v>523331.64122</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>668997.3580399998</v>
+        <v>671415.48202</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>738240.4943100001</v>
+        <v>738240.49431</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>964826.8209200001</v>
+        <v>973989.02855</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>1276323.28483</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>1286080.50654</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>1456460.231</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
         <v>405404.3645800001</v>
@@ -1700,73 +1701,83 @@
         <v>531610.74183</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>315750.9680999999</v>
+        <v>315750.9681</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>280449.41425</v>
+        <v>288487.08488</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>579621.96892</v>
+        <v>1002154.33169</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1209736.23877</v>
+        <v>1296620.24928</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1742129.14397</v>
+        <v>1741312.19635</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>2557806.22843</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>5205676.683850001</v>
+        <v>5198262.81013</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>7550120.05023</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>7538100.81321</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>8619495.075999999</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>466303.56702</v>
+        <v>466303.5670199999</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>643015.75692</v>
+        <v>643015.7569200001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>821336.9628199999</v>
+        <v>821336.96282</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>668767.49099</v>
+        <v>668767.4909899998</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>942657.47442</v>
+        <v>954199.8379299999</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1006104.0131</v>
+        <v>1329617.85609</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>2076766.54222</v>
+        <v>2413265.89616</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2721615.48395</v>
+        <v>2722114.66476</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>3855567.44016</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>13307532.02516</v>
+        <v>13364402.17166</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>7444472.3777</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>7458799.535799999</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>14629813.94</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>4223.0205</v>
@@ -1778,22 +1789,22 @@
         <v>3324.86482</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>24592.79344999999</v>
+        <v>24592.79345</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>28440.10456</v>
+        <v>28740.10456</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>88893.36590999999</v>
+        <v>90512.62964</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>30937.78613</v>
+        <v>31892.33153</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>82348.68058</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>61185.88511</v>
+        <v>61185.88511000001</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>10360.2672</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>11514.44121</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>39974.628</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>6347.34915</v>
@@ -1823,7 +1839,7 @@
         <v>3098.81836</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>492.34531</v>
+        <v>1583.76931</v>
       </c>
       <c r="I27" s="48" t="n">
         <v>27786.55</v>
@@ -1840,17 +1856,22 @@
       <c r="M27" s="48" t="n">
         <v>62546.6082</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>18163.519</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>46441.51691999999</v>
+        <v>46441.51692000001</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>49334.40847000001</v>
+        <v>49334.40847</v>
       </c>
       <c r="E28" s="48" t="n">
         <v>51494.319</v>
@@ -1859,34 +1880,39 @@
         <v>57398.83143999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>47860.87543999999</v>
+        <v>49033.89393999999</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>44838.96026000001</v>
+        <v>63406.21219</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>70185.70425</v>
+        <v>86849.25765000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>107138.27233</v>
+        <v>107159.86426</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>197000.78191</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>439365.57023</v>
+        <v>440913.33224</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>798485.9860299998</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>801273.15062</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>646857.231</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>328.30016</v>
+        <v>328.3001599999999</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>141.94315</v>
@@ -1918,14 +1944,19 @@
       <c r="M29" s="48" t="n">
         <v>21886.24264</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>58003.442</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>5615.960140000001</v>
+        <v>5615.960139999998</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>2122.71103</v>
@@ -1940,13 +1971,13 @@
         <v>4029.7418</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>9584.60968</v>
+        <v>9584.609680000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>9798.032849999998</v>
+        <v>10256.01927</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>7306.784460000001</v>
+        <v>7306.784459999999</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>17545.64709</v>
@@ -1957,17 +1988,22 @@
       <c r="M30" s="48" t="n">
         <v>28652.19255</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>44705.947</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>1698.27515</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>841.5365800000001</v>
+        <v>841.53658</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>229.38089</v>
@@ -1979,10 +2015,10 @@
         <v>24277.0353</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1358.3744</v>
+        <v>3121.69383</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>4929.74979</v>
+        <v>4959.74199</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>2777.94992</v>
@@ -1991,19 +2027,24 @@
         <v>293.34289</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>204.83194</v>
+        <v>204.83847</v>
       </c>
       <c r="M31" s="48" t="n">
         <v>3905.30275</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>1324.387</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>369562.36906</v>
+        <v>369562.3690599999</v>
       </c>
       <c r="D32" s="48" t="n">
         <v>517980.8437</v>
@@ -2015,31 +2056,36 @@
         <v>526962.28101</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>668401.9504200001</v>
+        <v>678471.2954300001</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>774091.0563000001</v>
+        <v>1067101.58772</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1775370.69555</v>
+        <v>2092453.61462</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>2347915.37476</v>
+        <v>2348384.0655</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>3408869.126700001</v>
+        <v>3408869.1267</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>12531441.83103</v>
+        <v>12586710.38013</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>6281045.32151</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>6286686.81586</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>13501314.175</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>563.87264</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>25775.70743</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>27521.634</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2090,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>41.62571999999999</v>
+        <v>41.62572</v>
       </c>
       <c r="G34" s="48" t="n">
         <v>0</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>31522.9033</v>
+        <v>31522.90330000001</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>56596.77795000001</v>
+        <v>56596.77795</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>68929.89380999999</v>
+        <v>68929.89381000001</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>34093.91240000001</v>
+        <v>34093.9124</v>
       </c>
       <c r="G35" s="48" t="n">
         <v>147972.4344</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>72480.61154000001</v>
+        <v>79942.66402</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>145904.33402</v>
+        <v>147214.69147</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>154392.12658</v>
+        <v>154401.02472</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>101638.97481</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>143089.89603</v>
+        <v>143143.72489</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>210660.57538</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>216559.07454</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>291948.977</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>386583.0588000001</v>
+        <v>386583.0588</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>479221.2649100001</v>
+        <v>479221.26491</v>
       </c>
       <c r="E36" s="47" t="n">
         <v>864552.40813</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>530923.20416</v>
+        <v>530923.2041600001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>1159214.70552</v>
+        <v>1160897.28378</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>867452.40746</v>
+        <v>1165659.09408</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1903464.40548</v>
+        <v>2327450.88228</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>2546859.02399</v>
+        <v>2547112.43364</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>3595121.53034</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>12871100.33727</v>
+        <v>12921201.8822</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>6647016.0524</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>6652202.601059999</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>13768479.669</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>799.5333200000001</v>
@@ -2222,19 +2288,24 @@
         <v>1060.01844</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>419.32389</v>
+        <v>419.3238899999999</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>2029.95933</v>
+        <v>2030.84633</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>7685.59078</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>7687.311659999999</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>12648.684</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>19265.90413</v>
@@ -2243,7 +2314,7 @@
         <v>20867.57905</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>47929.30116</v>
+        <v>47929.30115999999</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>37188.98165000001</v>
@@ -2252,16 +2323,16 @@
         <v>133220.50845</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>17502.75317</v>
+        <v>38585.99932000001</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>69260.65976000001</v>
+        <v>69260.65976000002</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>68176.57444999999</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>75674.65608000002</v>
+        <v>75674.65608</v>
       </c>
       <c r="L38" s="48" t="n">
         <v>159277.43764</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>173618.74313</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>233908.01</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>348.19183</v>
@@ -2308,11 +2384,16 @@
       <c r="M39" s="48" t="n">
         <v>10407.64511</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>395.429</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>353961.09597</v>
@@ -2324,34 +2405,39 @@
         <v>778548.46187</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>450516.2460099999</v>
+        <v>450516.24601</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>917802.60792</v>
+        <v>919485.1861800001</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>795303.3256999999</v>
+        <v>1072378.50477</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1743738.60268</v>
+        <v>2136162.09092</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>2392086.86159</v>
+        <v>2392340.27124</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>3437602.15379</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>12363338.50367</v>
+        <v>12413362.63121</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>6103102.56322</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>6108198.043119999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>13031634.202</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>102.42191</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>17898.46908</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>32277.357</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0.65398</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>3e-05</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>12105.25766</v>
@@ -2438,19 +2534,19 @@
         <v>19458.57854</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>34474.83336</v>
+        <v>34474.83335999999</v>
       </c>
       <c r="F43" s="48" t="n">
         <v>19694.64046</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>85223.03739999999</v>
+        <v>85223.0374</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>38877.80127</v>
+        <v>38926.06267</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>76438.02520999999</v>
+        <v>108001.01377</v>
       </c>
       <c r="J43" s="48" t="n">
         <v>69492.68446999999</v>
@@ -2459,16 +2555,21 @@
         <v>58652.39006000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>312978.11329</v>
+        <v>313054.64368</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>334303.0410499999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>334392.38893</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>457615.987</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>173817.80991</v>
@@ -2483,31 +2584,36 @@
         <v>175109.91656</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>395907.6057599999</v>
+        <v>397928.1065100001</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>290952.55602</v>
+        <v>310127.2749300001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>543653.19549</v>
+        <v>578308.0764500001</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>697052.27137</v>
+        <v>697061.68004</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>639905.62813</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>1834417.9569</v>
+        <v>1835065.26163</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>1813221.556980001</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>1817675.82951</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>2960627.169</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>161756.31667</v>
@@ -2522,31 +2628,36 @@
         <v>156539.39021</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>340344.6888</v>
+        <v>342365.18955</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>226627.26286</v>
+        <v>245801.98177</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>481941.51912</v>
+        <v>516596.4000800001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>635568.7574799998</v>
+        <v>635578.1661500001</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>571241.9661400001</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1614572.55136</v>
+        <v>1615219.85609</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>1664459.54559</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>1667316.64249</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2647716.403</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>12061.49324</v>
@@ -2555,7 +2666,7 @@
         <v>18536.52413</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>36540.92749000001</v>
+        <v>36540.92749</v>
       </c>
       <c r="F46" s="48" t="n">
         <v>18570.52635</v>
@@ -2567,25 +2678,30 @@
         <v>64325.29316</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>61711.67637000001</v>
+        <v>61711.67636999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>61483.51389</v>
+        <v>61483.51389000001</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>68663.66199000001</v>
+        <v>68663.66199000002</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>219845.40554</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>148762.01139</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>150359.18702</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>312910.766</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>311307.06289</v>
@@ -2600,73 +2716,83 @@
         <v>278485.33837</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-332015.4226100001</v>
+        <v>-316138.4674799999</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>427321.01854</v>
+        <v>855985.81877</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>839385.1800199999</v>
+        <v>804127.1867099999</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1219833.33256</v>
+        <v>1219252.74743</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>2178346.51012</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>3807690.41484</v>
+        <v>3806397.83796</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>6534354.818550001</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>6527021.918439999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>6520202.178</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>176269.08878</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>86169.12974999999</v>
+        <v>86169.12974999998</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>161246.50202</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>79151.48951999997</v>
+        <v>79151.48952000002</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>100744.42948</v>
+        <v>117070.10035</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>151902.2871700001</v>
+        <v>172344.53832</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>77798.21216</v>
+        <v>131092.22969</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>248689.1533</v>
+        <v>248697.88758</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>248945.5325</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>538557.0676000001</v>
+        <v>539192.82348</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>389024.87223</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>395851.5145700001</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>595761.213</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>775.0203699999998</v>
+        <v>775.02037</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>1861.28194</v>
@@ -2681,67 +2807,77 @@
         <v>1391.06555</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>4729.469409999999</v>
+        <v>4835.25378</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>2724.27701</v>
+        <v>3074.32545</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>2921.22696</v>
+        <v>2922.8816</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>4190.879819999999</v>
+        <v>4190.87982</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>82626.78696000001</v>
+        <v>82773.85422000001</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>27738.4688</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>7269.634</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>175494.06841</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>84307.84781000001</v>
+        <v>84307.84780999999</v>
       </c>
       <c r="E50" s="48" t="n">
         <v>150928.77664</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>73544.30783999998</v>
+        <v>73544.30784000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>99353.36393000001</v>
+        <v>115679.0348</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>147172.81776</v>
+        <v>167509.28454</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>75073.93515</v>
+        <v>128017.90424</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>245767.92634</v>
+        <v>245775.00598</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>244754.65268</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>455930.28064</v>
+        <v>456418.96926</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>361286.40343</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>368113.0457699999</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>588491.579</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>184086.72351</v>
@@ -2756,31 +2892,36 @@
         <v>130065.00895</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>117076.61888</v>
+        <v>117204.80252</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>187018.705</v>
+        <v>195363.67996</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>124296.61905</v>
+        <v>128770.49084</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>362814.0668</v>
+        <v>364143.31119</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>228680.62662</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>551560.3725000002</v>
+        <v>552492.23654</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>444081.9242299999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>447326.5533500001</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>793197.687</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>11808.84566</v>
@@ -2801,25 +2942,30 @@
         <v>28783.00864</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>26631.77944</v>
+        <v>27440.61016</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>46343.5776</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>71250.20732</v>
+        <v>71250.20731999999</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>66045.27209999999</v>
+        <v>66880.41167999999</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>112934.84739</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>113174.92545</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>275931.314</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>19580.72062</v>
@@ -2834,37 +2980,42 @@
         <v>37815.50619</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>36394.87237</v>
+        <v>36394.96476</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>23212.49244</v>
+        <v>24319.04037</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>24075.44462</v>
+        <v>24136.08089</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>30805.16292000001</v>
+        <v>30805.1993</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>27871.17240000001</v>
+        <v>27871.1724</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>50463.14595</v>
+        <v>50463.14605999999</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>39879.50118</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>39886.87538</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>54392.856</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>152697.15723</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>75140.37827999999</v>
+        <v>75140.37828</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>225091.31332</v>
@@ -2873,34 +3024,39 @@
         <v>68244.25598</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>51988.33780000002</v>
+        <v>52116.42905</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>135023.20392</v>
+        <v>142261.63095</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>73589.39499000002</v>
+        <v>77193.79978999999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>285665.32628</v>
+        <v>286994.53429</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>129559.2469</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>435051.95445</v>
+        <v>435148.6788</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>291267.57566</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>294264.75252</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>462873.517</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>303489.4281599999</v>
+        <v>303489.42816</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>227315.26598</v>
@@ -2912,31 +3068,36 @@
         <v>227571.81894</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-348347.61201</v>
+        <v>-316273.1696499999</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>392204.6007100001</v>
+        <v>832966.67713</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>792886.77313</v>
+        <v>806448.9255599998</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>1105708.41906</v>
+        <v>1103807.32382</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>2198611.416</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>3794687.10994</v>
+        <v>3793098.4249</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>6479297.76655</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>6475546.87966</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>6322765.704</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>26053.64503</v>
@@ -2948,16 +3109,16 @@
         <v>65772.65316999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>38374.68395</v>
+        <v>38374.68395000001</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>35141.38886</v>
+        <v>35146.90094</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>53708.84347</v>
+        <v>57825.45622999999</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>72441.30133000003</v>
+        <v>81616.3235</v>
       </c>
       <c r="J56" s="47" t="n">
         <v>83756.61705000002</v>
@@ -2966,16 +3127,21 @@
         <v>129006.46536</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>56171.99964000001</v>
+        <v>56346.87198</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>69944.14512</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>72258.98171000002</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>172324.263</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>277435.78313</v>
@@ -2984,34 +3150,37 @@
         <v>199373.80708</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>42748.12889000001</v>
+        <v>42748.12889000002</v>
       </c>
       <c r="F57" s="47" t="n">
         <v>189197.13499</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-383489.00087</v>
+        <v>-351420.07059</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>338495.75724</v>
+        <v>775141.2208999998</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>720445.4717999999</v>
+        <v>724832.6020599998</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>1021951.80201</v>
+        <v>1020050.70677</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>2069604.95064</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>3738515.110300001</v>
+        <v>3736751.55292</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>6409353.621429997</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>6403287.897949999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>6150441.441</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>713</v>
@@ -3044,28 +3216,31 @@
         <v>659</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>733</v>
+        <v>737</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>758</v>
+        <v>761</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>754</v>
+        <v>777</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>827</v>
+        <v>837</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>893</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>843</v>
+        <v>946</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>891</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>1054</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>